--- a/TestPWA/wwwroot/checklist/NPL.xlsx
+++ b/TestPWA/wwwroot/checklist/NPL.xlsx
@@ -12,7 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="14"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Wartungscheckliste MUVE</d:t>
+    </d:r>
+  </si>
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -661,11 +671,19 @@
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Zustand und Funktion an</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Zustand und Funktion an EBG/Shuttle 01 - 13</d:t>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">EBG/Shuttle 01 - 13</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -714,7 +732,24 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t xml:space="preserve">Zustand und Funktion der Schutzvorrichtung zu den Gassenbereichen</d:t>
+      <d:t xml:space="preserve">Zustand und Funktion der</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Schutzvorrichtung</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">zu den Gassenbereichen</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -1284,30 +1319,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="2" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="5" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="6" applyBorder="1" xfId="0"/>
@@ -1319,24 +1357,15 @@
       <alignment horizontal="center" wrapText="1" textRotation="90"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="9" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="10" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="7" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="7" applyBorder="1" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="7" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="7" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -1346,7 +1375,10 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="11" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1356,16 +1388,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" descr="" name="Logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A3:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
@@ -1377,530 +1452,530 @@
     <col min="11" max="11" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" ht="84" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="H8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="I8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="J8" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="20" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="21" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="20" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="20" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="21" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="20" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="21" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="20" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="21" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="20" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="20" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="20" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="20" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="20" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="20" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20">
       <c r="A20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="18"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="26" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="20" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="20" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="20" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="20" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="15" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="20" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="3"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="18"/>
     </row>
     <row r="34">
       <c r="A34" s="19" t="s">
-        <v>29</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35">
-      <c r="A35" s="18"/>
+      <c r="A35" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
@@ -1910,24 +1985,31 @@
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A3:E4"/>
   </mergeCells>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestPWA/wwwroot/checklist/NPL.xlsx
+++ b/TestPWA/wwwroot/checklist/NPL.xlsx
@@ -29,6 +29,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Datum:</d:t>
     </d:r>
   </si>
@@ -38,6 +46,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Bargeldgewerk: Notenpufferlager</d:t>
     </d:r>
   </si>
@@ -47,6 +63,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Wartungsfirma:</d:t>
     </d:r>
   </si>
@@ -56,6 +80,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Servicetechniker:</d:t>
     </d:r>
   </si>
@@ -65,6 +97,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Achtung: Arbeiten nur ausführen, wenn keine Werte vorhanden sind.</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -73,6 +113,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Detailierte Wartungsbeschreibungen sind im Wartungsdokument des NPL abgelegt</d:t>
     </d:r>
   </si>
@@ -82,6 +130,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Wartungs oder Prüfintervall [Jahr]</d:t>
     </d:r>
   </si>
@@ -91,6 +147,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">in Ordnung</d:t>
     </d:r>
   </si>
@@ -100,6 +164,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">nicht in Ordnung</d:t>
     </d:r>
   </si>
@@ -109,6 +181,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">erledigt</d:t>
     </d:r>
   </si>
@@ -118,6 +198,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">nicht vorhanden</d:t>
     </d:r>
   </si>
@@ -125,6 +213,13 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
         <d:color rgb="FFF2F2F2"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -137,6 +232,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Prüfung der Sicherheitseinrichtung, Not-Halt Taster (TK01.01 / .02 / .03 / BU30)</d:t>
     </d:r>
   </si>
@@ -146,6 +249,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">J</d:t>
     </d:r>
   </si>
@@ -155,6 +266,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Prüfung der Sicherheitseinrichtung, Abdeckung auf Beschädigungen prüfen (TK01.01 / .02 / .03 / BU30)</d:t>
     </d:r>
   </si>
@@ -164,6 +283,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Funktionstest Brandschutztore bei Wareneingang / Warenausgang / Verarbeitung</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -172,6 +299,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Brandschutztor 101 (2x)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -180,6 +315,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Brandschutztor 102 (2x)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -188,6 +331,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Prüfpunkte: Laufverhalten, Endlagen, Abdichtung, Geräusche, Steuerungsanzeige, Abnutzungsescheinungen,</d:t>
     </d:r>
   </si>
@@ -197,6 +348,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">M</d:t>
     </d:r>
   </si>
@@ -206,10 +365,26 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Zustandsprüfung</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
         <d:color rgb="FF000000"/>
@@ -223,6 +398,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">gemäss Wartungsdokument</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -231,6 +414,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">"Service- und Wartungsplan IT Infrastruktur"</d:t>
     </d:r>
   </si>
@@ -240,14 +431,30 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">W</d:t>
     </d:r>
   </si>
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
       <d:t xml:space="preserve">Pneumatikzentrale</d:t>
@@ -258,6 +465,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">für alle unterschiedlichen Anlagebereiche in Steigzone auf Funktion, genügend Druck, Dichtheit prüfen</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -266,6 +481,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Kondensatabscheider</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -274,6 +497,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Not-Halt Entlüftungsventil</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -282,6 +513,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Druckregelventil</d:t>
     </d:r>
   </si>
@@ -291,6 +530,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">6M</d:t>
     </d:r>
   </si>
@@ -300,10 +547,26 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Zustand und Funktion der Rollenantriebe in der</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
         <d:color rgb="FF000000"/>
@@ -317,6 +580,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">prüfen</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -325,6 +596,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Antriebsriemen (Risse, Abnutzung)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -333,6 +612,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Motorrollen (Laufruhe, Leichtgängigkeit, Lagerzustand)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -341,6 +628,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Befestigung (Klipp, Verschraubung)</d:t>
     </d:r>
   </si>
@@ -350,10 +645,26 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Zustand und Funktion aller</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
         <d:color rgb="FF000000"/>
@@ -367,6 +678,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">in der Fördetechnik prüfen</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -375,6 +694,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Dichtheit der Ventile</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -383,6 +710,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Bewegungsgeschwindigkeit, Endanschlag des Balkens (Pneumatikzylinder)</d:t>
     </d:r>
   </si>
@@ -392,10 +727,26 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Zustand und Funktion aller</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
         <d:color rgb="FF000000"/>
@@ -409,6 +760,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">prüfen</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -417,6 +776,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Mechanische Spannung der Antriebsriemen beim Schwert (Flachriemen)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -425,6 +792,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Dichtheit der Ventile</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -433,6 +808,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Mechanische Bewegung der einzelnen Schwerter (Pneumatikzylinder)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -441,6 +824,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Antriebsketten der Schwerter</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -449,6 +840,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Antriebsriemen</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -457,6 +856,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Asynchronmotor inkl. Mechanik (Kann manuell per Schütz angesteuert werden)</d:t>
     </d:r>
   </si>
@@ -466,10 +873,26 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Zustand, Funktion, Ausrichtung aller</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
         <d:color rgb="FF000000"/>
@@ -483,6 +906,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">auf Reflektoren, Sicherheits-Lichtgitter kontrollieren</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -491,6 +922,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Fördertechnik</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -499,6 +938,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- OSR</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -507,6 +954,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Behälterlifte</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -515,6 +970,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- OSR-Lifte</d:t>
     </d:r>
   </si>
@@ -524,10 +987,26 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Zustand und Funktion des</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
         <d:color rgb="FF000000"/>
@@ -541,6 +1020,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">für Shuttletausch</d:t>
     </d:r>
   </si>
@@ -550,10 +1037,26 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Zustand und Funktion</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
         <d:color rgb="FF000000"/>
@@ -567,6 +1070,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Motor, Kupplung (Laufruhe, Geräusche, mech. Befestigung)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -575,6 +1086,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Antriebswelle (Laufruhe,Abnutzung)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -583,6 +1102,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Hubzahnriemen (Geradelauf, Spannung, Abnutzung)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -591,6 +1118,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Umlenkrolle (Laufruhe, Abnutzung)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -599,6 +1134,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Schleppkette (Kabellauf)</d:t>
     </d:r>
   </si>
@@ -608,10 +1151,26 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Zustand und Funktion</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
         <d:color rgb="FF000000"/>
@@ -625,6 +1184,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Bewegung Liftplattform (Laufruhe, Vibrationen, Geräusche)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -633,6 +1200,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Motor, Kupplung (Laufruhe, Geräusche, mech. Befestigung)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -641,6 +1216,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Antriebswelle (Laufruhe,Abnutzung)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -649,6 +1232,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Hubzahnriemen (Geradelauf, Spannung, Abnutzung)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -657,6 +1248,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Umlenkrolle (Laufruhe, Abnutzung)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -665,6 +1264,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Schleppkette (Kabellauf)</d:t>
     </d:r>
   </si>
@@ -674,10 +1281,26 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Zustand und Funktion an</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
         <d:color rgb="FF000000"/>
@@ -691,6 +1314,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Sensoren, Distanzen</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -699,6 +1330,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Laufräder für Längs- und Querfahrwerk, Seitenführungsrad (Lagerung, Laufruhe)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -707,6 +1346,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Teleskoparme, Antriebkette</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -715,6 +1362,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Drehgeber, Induktivgeber</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -723,6 +1378,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Gassenfahrt, Quergassenfahrt, Behälterentnahme, Behältereinlagerung</d:t>
     </d:r>
   </si>
@@ -732,10 +1395,26 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Zustand und Funktion der</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
         <d:color rgb="FF000000"/>
@@ -749,6 +1428,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">zu den Gassenbereichen</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -757,6 +1444,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Knapp-Lock</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -765,6 +1460,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Not-Halt Taster</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -773,6 +1476,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Schutzzaun, Schutzabdeckung</d:t>
     </d:r>
   </si>
@@ -782,6 +1493,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Bemerkungen:</d:t>
     </d:r>
   </si>
@@ -789,6 +1508,13 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
         <d:color rgb="FFF2F2F2"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -801,6 +1527,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Reinigung der Fördertechnik</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -809,6 +1543,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Barcodescanner (mittels trockenem, fusselfreiem Tuch)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -817,6 +1559,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Optische Sensoren / Reflektoren (mittels trockenem, fusselfreiem Tuch)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -825,6 +1575,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Antriebsriemen</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -833,6 +1591,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Antriebsrollen</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -841,6 +1607,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Gurtumsetzer</d:t>
     </d:r>
   </si>
@@ -850,6 +1624,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Reinigung dezentraler Steuerschränke mittels Staubsauger, Filtermattenaustausch</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -858,6 +1640,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- VERW: F01.GB01</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -866,6 +1656,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- WA: F01.GB02</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -874,6 +1672,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- WE: F01.GB03</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -882,6 +1688,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Steigzone: F01.GB04 / F01.GB05 / F01.1 / F01.2</d:t>
     </d:r>
   </si>
@@ -891,6 +1705,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Reinigung dezentraler Steuerschrank Brandschutztore (Stöbich)</d:t>
     </d:r>
   </si>
@@ -900,6 +1722,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Reinigung dezentraler Steuerschrank Tresorschieber (Hügli)</d:t>
     </d:r>
   </si>
@@ -907,6 +1737,13 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
         <d:color rgb="FFF2F2F2"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -919,10 +1756,26 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Reinigung</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
         <d:color rgb="FF000000"/>
@@ -936,6 +1789,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">mittels Staubsauger, Filtermattenaustausch</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -944,6 +1805,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- SH01.04+BHLF1</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -952,6 +1821,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- SH01.01+F1</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -960,6 +1837,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- SH01.01+SUV01</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -968,6 +1853,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- SH01.02+SUV01</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -976,6 +1869,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- SH01.03+SUV01</d:t>
     </d:r>
   </si>
@@ -985,10 +1886,26 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Reinigungsarbeiten in den</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
         <d:color rgb="FF000000"/>
@@ -1002,6 +1919,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Knapp-Lock</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -1010,6 +1935,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Quergangüberwachungssensoren</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -1018,6 +1951,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Reflektorfolien</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -1026,6 +1967,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Fahrprofil</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -1034,6 +1983,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Stromschienen</d:t>
     </d:r>
   </si>
@@ -1043,10 +2000,26 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Reinigungsarbeiten im</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
         <d:color rgb="FF000000"/>
@@ -1060,6 +2033,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Optische Sensoren, Reflektoren</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -1068,6 +2049,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Gabellichtschranke</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -1076,6 +2065,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Sicherheitslichtgitter</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -1084,6 +2081,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Keilrippenriemen</d:t>
     </d:r>
   </si>
@@ -1093,10 +2098,26 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Reinigungsarbeiten an</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
         <d:color rgb="FF000000"/>
@@ -1110,6 +2131,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Sensoren, Reflektoren</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -1118,6 +2147,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- Gleitleiste, Schleifer, Laufräder</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -1126,7 +2163,23 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">- LED-Steifen, Shuttlegehäuse</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
